--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ada77a5fc8572b24/Pulpit/Studia/transformacje_grafowe/SinglePushOut-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{92618243-06C4-4768-8AB3-61E8E0B2B25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78CA364A-BD7F-48CE-A1E1-C86AD419C59A}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{92618243-06C4-4768-8AB3-61E8E0B2B25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE4ED28-0D2C-4356-807D-33C60102EDE2}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="912" windowWidth="17280" windowHeight="8964" xr2:uid="{2F5A7232-2F88-4FBB-BFF8-27001A3110E0}"/>
+    <workbookView xWindow="5364" yWindow="2076" windowWidth="5376" windowHeight="8964" xr2:uid="{2F5A7232-2F88-4FBB-BFF8-27001A3110E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Graph" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>A</t>
   </si>
@@ -51,20 +51,33 @@
     <t>2</t>
   </si>
   <si>
-    <t>Labels</t>
-  </si>
-  <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -115,22 +128,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61129F6A-CCC8-4E48-97C8-232F620A26B4}" name="Tabela1" displayName="Tabela1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{61129F6A-CCC8-4E48-97C8-232F620A26B4}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61129F6A-CCC8-4E48-97C8-232F620A26B4}" name="Tabela1" displayName="Tabela1" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{61129F6A-CCC8-4E48-97C8-232F620A26B4}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{42394C7D-8A63-4430-98DE-4A73911E55CE}" name="0"/>
     <tableColumn id="2" xr3:uid="{7C2137F4-E7F3-4A5E-BD90-F1552478527D}" name="1"/>
     <tableColumn id="3" xr3:uid="{140919D5-33EC-413F-8BDE-78645A457CE2}" name="2"/>
+    <tableColumn id="4" xr3:uid="{73C145ED-030A-4B9A-AAFE-F6BE675AACFF}" name="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D4960DC-5DCF-413C-B801-0F30FEE18401}" name="Tabela2" displayName="Tabela2" ref="A1:A4" totalsRowShown="0">
-  <autoFilter ref="A1:A4" xr:uid="{1D4960DC-5DCF-413C-B801-0F30FEE18401}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DFCA233F-AF04-4E91-9DE6-770DE1B73F08}" name="Labels"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E006B12-240B-433E-AF9A-1234735703CC}" name="Tabela2" displayName="Tabela2" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{2E006B12-240B-433E-AF9A-1234735703CC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2BA582F4-AB01-49DB-8E44-4ABD9D28D645}" name="no"/>
+    <tableColumn id="2" xr3:uid="{DBC9D0E3-73F8-4B6D-9B45-67891041B769}" name="labels"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -433,17 +448,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C558482D-8486-40D3-873D-113B4A2EFCB8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -451,8 +466,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -462,8 +480,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -473,8 +494,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -484,8 +508,12 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -495,31 +523,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4E806B-7CCF-478F-8244-74603DDB9ADC}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
